--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Giá bán</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Chửa tủy răng vĩnh viễn</t>
+  </si>
+  <si>
+    <t>Giá đặt labo</t>
   </si>
 </sst>
 </file>
@@ -125,11 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,9 +429,10 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -445,8 +451,11 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -461,6 +470,9 @@
       </c>
       <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\Projects\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMT\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>GIGA</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Giá bán</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Nhóm dịch vụ</t>
-  </si>
-  <si>
-    <t>Mã dịch vụ</t>
   </si>
   <si>
     <t>Công đoạn 1;Công đoạn 2;Công đoạn 3</t>
@@ -415,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,13 +423,12 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -442,22 +438,19 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -465,13 +458,13 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3">
         <v>100000</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\Projects\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>GIGA</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Giá bán</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Nhóm dịch vụ</t>
-  </si>
-  <si>
-    <t>Mã dịch vụ</t>
   </si>
   <si>
     <t>Công đoạn 1;Công đoạn 2;Công đoạn 3</t>
@@ -415,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,13 +423,12 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -442,22 +438,19 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -465,13 +458,13 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3">
         <v>100000</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
         <v>0</v>
       </c>
     </row>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMT\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonbui\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>GIGA</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Giá bán</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Giá đặt labo</t>
+  </si>
+  <si>
+    <t>Giá vốn</t>
+  </si>
+  <si>
+    <t>Hãng</t>
+  </si>
+  <si>
+    <t>ACB</t>
   </si>
 </sst>
 </file>
@@ -412,23 +421,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="3"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.06640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -438,17 +449,23 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -461,11 +478,17 @@
       <c r="D2" s="3">
         <v>100000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonbui\source\repos\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AC4C0-3E58-487E-BEEE-7264DDEBCAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="458" yWindow="2291" windowWidth="24677" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>GIGA</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Giá bán</t>
   </si>
@@ -71,25 +72,28 @@
     <t xml:space="preserve">Công đoạn </t>
   </si>
   <si>
+    <t>Giá đặt labo</t>
+  </si>
+  <si>
+    <t>Giá vốn</t>
+  </si>
+  <si>
+    <t>Hãng</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>Mã dịch vụ</t>
+  </si>
+  <si>
     <t>Chửa tủy răng vĩnh viễn</t>
-  </si>
-  <si>
-    <t>Giá đặt labo</t>
-  </si>
-  <si>
-    <t>Giá vốn</t>
-  </si>
-  <si>
-    <t>Hãng</t>
-  </si>
-  <si>
-    <t>ACB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,75 +424,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="3"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.06640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="b">
+        <v>12</v>
+      </c>
+      <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100000</v>
       </c>
       <c r="E2" s="3">
         <v>100000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AC4C0-3E58-487E-BEEE-7264DDEBCAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15577B1-BC6F-4571-835D-31DC1BBB5DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="458" yWindow="2291" windowWidth="24677" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="458" yWindow="1139" windowWidth="24677" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,13 +428,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="3"/>
@@ -446,10 +446,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -474,7 +474,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="b">

--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileDichVu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15577B1-BC6F-4571-835D-31DC1BBB5DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="458" yWindow="1139" windowWidth="24677" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1140" windowWidth="24675" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>GIGA</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Giá bán</t>
   </si>
@@ -88,12 +87,18 @@
   </si>
   <si>
     <t>Chửa tủy răng vĩnh viễn</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Liệu trình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,27 +429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="3"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -458,22 +464,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -483,19 +492,22 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>100000</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="3">
         <v>100000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
